--- a/SubRES_Tmpl/SubRES_UserConstraints_helper.xlsx
+++ b/SubRES_Tmpl/SubRES_UserConstraints_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE705E-A13E-4E55-8794-0C82913D7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF56EA-3E47-4043-B25A-C8A72DAC5108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>ENV</t>
-  </si>
-  <si>
     <t>SPV</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>~FI_T: INPUT</t>
+  </si>
+  <si>
+    <t>NRG</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -473,17 +473,17 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C4" t="str">
         <f>"ElcProd_"&amp;H4</f>
         <v>ElcProd_SPV</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
@@ -492,10 +492,10 @@
         <v>ElcProd_WON</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
@@ -504,10 +504,10 @@
         <v>ElcProd_WOF</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
@@ -516,10 +516,10 @@
         <v>ElcProd_SolWin</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
@@ -528,10 +528,10 @@
         <v>ElcProd_Gas</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
@@ -540,52 +540,52 @@
         <v>ElcProd_Total</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
       <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
         <v>24</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
       </c>
       <c r="L15">
         <v>2020</v>
@@ -596,16 +596,16 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="str">
         <f>C16</f>
@@ -628,13 +628,13 @@
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
       </c>
       <c r="J17" t="str">
         <f>$C$9</f>

--- a/SubRES_Tmpl/SubRES_UserConstraints_helper.xlsx
+++ b/SubRES_Tmpl/SubRES_UserConstraints_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF56EA-3E47-4043-B25A-C8A72DAC5108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A484E79-2AE0-4FCF-9EE7-C355E3CF23A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -113,10 +113,13 @@
     <t>CommOUT</t>
   </si>
   <si>
-    <t>~FI_T: INPUT</t>
-  </si>
-  <si>
     <t>NRG</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>~FI_T: ENV_ACT</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M19"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -547,6 +550,9 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -559,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
@@ -615,12 +621,8 @@
         <f>C7</f>
         <v>ElcProd_SolWin</v>
       </c>
-      <c r="K16" t="str">
-        <f>$C$10</f>
-        <v>DumUC</v>
-      </c>
       <c r="L16">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -641,36 +643,62 @@
         <v>ElcProd_Total</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="I18" t="str">
-        <f>C17</f>
-        <v>UC_SolShareUP</v>
-      </c>
-      <c r="J18" t="str">
-        <f>C4</f>
-        <v>ElcProd_SPV</v>
-      </c>
       <c r="K18" t="str">
         <f>$C$10</f>
         <v>DumUC</v>
       </c>
       <c r="L18">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="I19" t="str">
+        <f>C17</f>
+        <v>UC_SolShareUP</v>
+      </c>
       <c r="J19" t="str">
+        <f>C4</f>
+        <v>ElcProd_SPV</v>
+      </c>
+      <c r="L19">
+        <v>-0.4</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="J20" t="str">
         <f>$C$9</f>
         <v>ElcProd_Total</v>
       </c>
-      <c r="L19">
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="K21" t="str">
+        <f>$C$10</f>
+        <v>DumUC</v>
+      </c>
+      <c r="L21">
         <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
